--- a/results/I3_N5_M3_T45_C200_DepLowerLeft_s1_mean_res.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepLowerLeft_s1_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.80957162069346</v>
+        <v>34.30000008383183</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1570000648498535</v>
+        <v>0.0709998607635498</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.80957162069346</v>
+        <v>34.30000008383182</v>
       </c>
     </row>
     <row r="7">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>38.76072200618778</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.60181147454988</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>31.60181147454983</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.48909622152285</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>32.48909622152291</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>128.4420000000028</v>
+        <v>171.8</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>130.7890000000249</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>82.84700000000382</v>
+        <v>110.6</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>176.8439999999645</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>99.3240000000151</v>
+        <v>109.8</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>130.7890000000558</v>
+        <v>171.8</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>128.4420000000391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>176.843999999949</v>
+        <v>109.8</v>
       </c>
     </row>
   </sheetData>
